--- a/biology/Botanique/Hippolyte_Nectoux/Hippolyte_Nectoux.xlsx
+++ b/biology/Botanique/Hippolyte_Nectoux/Hippolyte_Nectoux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hippolyte Nectoux (né le 8 mai 1759 à Autun et mort le 9 juin 1836 à Montrouge) est un botaniste français.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Hippolyte Nectoux a introduit l'arbre à pain aux Antilles. Membre de la Commission des sciences et des arts durant la campagne d'Égypte, il produit les premières pommes de terre dans ce pays.
 Il est allé jusqu'en Nubie où il découvre du séné sauvage sur pied.
